--- a/artfynd/A 62083-2022.xlsx
+++ b/artfynd/A 62083-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487423</v>
+        <v>111487422</v>
       </c>
       <c r="B2" t="n">
-        <v>73696</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626222.1012433186</v>
+        <v>626214.6507017991</v>
       </c>
       <c r="R2" t="n">
-        <v>6893215.74357231</v>
+        <v>6893264.597594698</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111487422</v>
+        <v>111487423</v>
       </c>
       <c r="B3" t="n">
-        <v>89369</v>
+        <v>73696</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626214.6507017991</v>
+        <v>626222.1012433186</v>
       </c>
       <c r="R3" t="n">
-        <v>6893264.597594698</v>
+        <v>6893215.74357231</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111487420</v>
+        <v>111487427</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>626221.6215819545</v>
+        <v>626206.7588566126</v>
       </c>
       <c r="R4" t="n">
-        <v>6893253.628042356</v>
+        <v>6893112.222867905</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111487415</v>
+        <v>111487417</v>
       </c>
       <c r="B5" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626321.4062460049</v>
+        <v>626274.1114414346</v>
       </c>
       <c r="R5" t="n">
-        <v>6893191.850843907</v>
+        <v>6893228.451636742</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1110,6 +1110,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1128,10 +1129,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111487419</v>
+        <v>111487428</v>
       </c>
       <c r="B6" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1141,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1169,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626208.9904600172</v>
+        <v>626201.261590388</v>
       </c>
       <c r="R6" t="n">
-        <v>6893240.521565447</v>
+        <v>6893121.376245681</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1216,12 +1217,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter spridda över 2 m2</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1240,10 +1247,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111487427</v>
+        <v>111487418</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1263,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1287,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626206.7588566126</v>
+        <v>626244.4413132126</v>
       </c>
       <c r="R7" t="n">
-        <v>6893112.222867905</v>
+        <v>6893219.854707362</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1352,7 +1359,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111487428</v>
+        <v>111487420</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1392,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>626201.261590388</v>
+        <v>626221.6215819545</v>
       </c>
       <c r="R8" t="n">
-        <v>6893121.376245681</v>
+        <v>6893253.628042356</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1440,18 +1447,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter spridda över 2 m2</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1470,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111487418</v>
+        <v>111487416</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1482,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1510,10 +1511,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>626244.4413132126</v>
+        <v>626241.4078639001</v>
       </c>
       <c r="R9" t="n">
-        <v>6893219.854707362</v>
+        <v>6893275.892764967</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1564,6 +1565,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1582,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111487424</v>
+        <v>111487429</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1622,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>626179.4687150358</v>
+        <v>626289.1696174983</v>
       </c>
       <c r="R10" t="n">
-        <v>6893140.215102527</v>
+        <v>6893239.309586792</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1670,12 +1672,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter inom 2m2</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1694,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111487416</v>
+        <v>111487419</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1706,25 +1714,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1734,10 +1742,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>626241.4078639001</v>
+        <v>626208.9904600172</v>
       </c>
       <c r="R11" t="n">
-        <v>6893275.892764967</v>
+        <v>6893240.521565447</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1788,7 +1796,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1807,10 +1814,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111487429</v>
+        <v>111487415</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1819,25 +1826,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1847,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>626289.1696174983</v>
+        <v>626321.4062460049</v>
       </c>
       <c r="R12" t="n">
-        <v>6893239.309586792</v>
+        <v>6893191.850843907</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1895,18 +1902,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter inom 2m2</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2037,7 +2038,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111487417</v>
+        <v>111487424</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2077,10 +2078,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>626274.1114414346</v>
+        <v>626179.4687150358</v>
       </c>
       <c r="R14" t="n">
-        <v>6893228.451636742</v>
+        <v>6893140.215102527</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2131,7 +2132,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62083-2022.xlsx
+++ b/artfynd/A 62083-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487422</v>
+        <v>111487423</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>73696</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626214.6507017991</v>
+        <v>626222.1012433186</v>
       </c>
       <c r="R2" t="n">
-        <v>6893264.597594698</v>
+        <v>6893215.74357231</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111487423</v>
+        <v>111487420</v>
       </c>
       <c r="B3" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626222.1012433186</v>
+        <v>626221.6215819545</v>
       </c>
       <c r="R3" t="n">
-        <v>6893215.74357231</v>
+        <v>6893253.628042356</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111487427</v>
+        <v>111487415</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>626206.7588566126</v>
+        <v>626321.4062460049</v>
       </c>
       <c r="R4" t="n">
-        <v>6893112.222867905</v>
+        <v>6893191.850843907</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111487417</v>
+        <v>111487429</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626274.1114414346</v>
+        <v>626289.1696174983</v>
       </c>
       <c r="R5" t="n">
-        <v>6893228.451636742</v>
+        <v>6893239.309586792</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1102,6 +1102,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter inom 2m2</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1129,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111487428</v>
+        <v>111487419</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1141,25 +1146,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1169,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626201.261590388</v>
+        <v>626208.9904600172</v>
       </c>
       <c r="R6" t="n">
-        <v>6893121.376245681</v>
+        <v>6893240.521565447</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1217,18 +1222,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter spridda över 2 m2</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1247,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111487418</v>
+        <v>111487424</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,25 +1258,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1287,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626244.4413132126</v>
+        <v>626179.4687150358</v>
       </c>
       <c r="R7" t="n">
-        <v>6893219.854707362</v>
+        <v>6893140.215102527</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1359,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111487420</v>
+        <v>111487422</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1371,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1398,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>626221.6215819545</v>
+        <v>626214.6507017991</v>
       </c>
       <c r="R8" t="n">
-        <v>6893253.628042356</v>
+        <v>6893264.597594698</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1471,10 +1470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111487416</v>
+        <v>111487421</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1482,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1511,10 +1510,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>626241.4078639001</v>
+        <v>626220.5943774013</v>
       </c>
       <c r="R9" t="n">
-        <v>6893275.892764967</v>
+        <v>6893268.563298941</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1565,7 +1564,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1584,7 +1582,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111487429</v>
+        <v>111487417</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1624,10 +1622,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>626289.1696174983</v>
+        <v>626274.1114414346</v>
       </c>
       <c r="R10" t="n">
-        <v>6893239.309586792</v>
+        <v>6893228.451636742</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1670,11 +1668,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter inom 2m2</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1695,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111487419</v>
+        <v>111487418</v>
       </c>
       <c r="B11" t="n">
-        <v>5135</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,25 +1707,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1742,10 +1735,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>626208.9904600172</v>
+        <v>626244.4413132126</v>
       </c>
       <c r="R11" t="n">
-        <v>6893240.521565447</v>
+        <v>6893219.854707362</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1814,10 +1807,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111487415</v>
+        <v>111487428</v>
       </c>
       <c r="B12" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,25 +1819,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1847,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>626321.4062460049</v>
+        <v>626201.261590388</v>
       </c>
       <c r="R12" t="n">
-        <v>6893191.850843907</v>
+        <v>6893121.376245681</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1902,12 +1895,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter spridda över 2 m2</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1926,10 +1925,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111487421</v>
+        <v>111487416</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1938,25 +1937,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1966,10 +1965,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>626220.5943774013</v>
+        <v>626241.4078639001</v>
       </c>
       <c r="R13" t="n">
-        <v>6893268.563298941</v>
+        <v>6893275.892764967</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2020,6 +2019,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111487424</v>
+        <v>111487427</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2050,25 +2050,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>626179.4687150358</v>
+        <v>626206.7588566126</v>
       </c>
       <c r="R14" t="n">
-        <v>6893140.215102527</v>
+        <v>6893112.222867905</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>

--- a/artfynd/A 62083-2022.xlsx
+++ b/artfynd/A 62083-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487423</v>
+        <v>111487417</v>
       </c>
       <c r="B2" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626222.1012433186</v>
+        <v>626274.1114414346</v>
       </c>
       <c r="R2" t="n">
-        <v>6893215.74357231</v>
+        <v>6893228.451636742</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -774,6 +774,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -792,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111487420</v>
+        <v>111487429</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -832,10 +833,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626221.6215819545</v>
+        <v>626289.1696174983</v>
       </c>
       <c r="R3" t="n">
-        <v>6893253.628042356</v>
+        <v>6893239.309586792</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -880,12 +881,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter inom 2m2</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -904,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111487415</v>
+        <v>111487423</v>
       </c>
       <c r="B4" t="n">
-        <v>73634</v>
+        <v>73696</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6426</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>626321.4062460049</v>
+        <v>626222.1012433186</v>
       </c>
       <c r="R4" t="n">
-        <v>6893191.850843907</v>
+        <v>6893215.74357231</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111487429</v>
+        <v>111487415</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1035,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626289.1696174983</v>
+        <v>626321.4062460049</v>
       </c>
       <c r="R5" t="n">
-        <v>6893239.309586792</v>
+        <v>6893191.850843907</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1104,18 +1111,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter inom 2m2</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1134,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111487419</v>
+        <v>111487421</v>
       </c>
       <c r="B6" t="n">
-        <v>5135</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,25 +1147,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105930</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1175,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626208.9904600172</v>
+        <v>626220.5943774013</v>
       </c>
       <c r="R6" t="n">
-        <v>6893240.521565447</v>
+        <v>6893268.563298941</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1246,7 +1247,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111487424</v>
+        <v>111487428</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1286,10 +1287,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626179.4687150358</v>
+        <v>626201.261590388</v>
       </c>
       <c r="R7" t="n">
-        <v>6893140.215102527</v>
+        <v>6893121.376245681</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1334,12 +1335,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter spridda över 2 m2</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1470,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111487421</v>
+        <v>111487427</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,21 +1493,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1510,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>626220.5943774013</v>
+        <v>626206.7588566126</v>
       </c>
       <c r="R9" t="n">
-        <v>6893268.563298941</v>
+        <v>6893112.222867905</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1582,7 +1589,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111487417</v>
+        <v>111487424</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1622,10 +1629,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>626274.1114414346</v>
+        <v>626179.4687150358</v>
       </c>
       <c r="R10" t="n">
-        <v>6893228.451636742</v>
+        <v>6893140.215102527</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1676,7 +1683,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1695,10 +1701,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111487418</v>
+        <v>111487416</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1707,25 +1713,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1735,10 +1741,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>626244.4413132126</v>
+        <v>626241.4078639001</v>
       </c>
       <c r="R11" t="n">
-        <v>6893219.854707362</v>
+        <v>6893275.892764967</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1789,6 +1795,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1807,10 +1814,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111487428</v>
+        <v>111487419</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1819,25 +1826,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1847,10 +1854,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>626201.261590388</v>
+        <v>626208.9904600172</v>
       </c>
       <c r="R12" t="n">
-        <v>6893121.376245681</v>
+        <v>6893240.521565447</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1895,18 +1902,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter spridda över 2 m2</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1925,10 +1926,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111487416</v>
+        <v>111487418</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1937,25 +1938,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1965,10 +1966,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>626241.4078639001</v>
+        <v>626244.4413132126</v>
       </c>
       <c r="R13" t="n">
-        <v>6893275.892764967</v>
+        <v>6893219.854707362</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2019,7 +2020,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111487427</v>
+        <v>111487420</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2050,25 +2050,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>626206.7588566126</v>
+        <v>626221.6215819545</v>
       </c>
       <c r="R14" t="n">
-        <v>6893112.222867905</v>
+        <v>6893253.628042356</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>

--- a/artfynd/A 62083-2022.xlsx
+++ b/artfynd/A 62083-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487417</v>
+        <v>111487424</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626274.1114414346</v>
+        <v>626179.4687150358</v>
       </c>
       <c r="R2" t="n">
-        <v>6893228.451636742</v>
+        <v>6893140.215102527</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -774,7 +774,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -793,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111487429</v>
+        <v>111487428</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -833,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626289.1696174983</v>
+        <v>626201.261590388</v>
       </c>
       <c r="R3" t="n">
-        <v>6893239.309586792</v>
+        <v>6893121.376245681</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -883,7 +882,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ca 50 bladrosetter inom 2m2</t>
+          <t>ca 50 bladrosetter spridda över 2 m2</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111487423</v>
+        <v>111487421</v>
       </c>
       <c r="B4" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +926,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,10 +950,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>626222.1012433186</v>
+        <v>626220.5943774013</v>
       </c>
       <c r="R4" t="n">
-        <v>6893215.74357231</v>
+        <v>6893268.563298941</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1023,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111487415</v>
+        <v>111487418</v>
       </c>
       <c r="B5" t="n">
-        <v>73634</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,25 +1034,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626321.4062460049</v>
+        <v>626244.4413132126</v>
       </c>
       <c r="R5" t="n">
-        <v>6893191.850843907</v>
+        <v>6893219.854707362</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1135,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111487421</v>
+        <v>111487419</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>5135</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,25 +1146,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1175,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626220.5943774013</v>
+        <v>626208.9904600172</v>
       </c>
       <c r="R6" t="n">
-        <v>6893268.563298941</v>
+        <v>6893240.521565447</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1247,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111487428</v>
+        <v>111487415</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,25 +1258,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1287,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626201.261590388</v>
+        <v>626321.4062460049</v>
       </c>
       <c r="R7" t="n">
-        <v>6893121.376245681</v>
+        <v>6893191.850843907</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1335,18 +1334,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter spridda över 2 m2</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1365,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111487422</v>
+        <v>111487416</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1398,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>626214.6507017991</v>
+        <v>626241.4078639001</v>
       </c>
       <c r="R8" t="n">
-        <v>6893264.597594698</v>
+        <v>6893275.892764967</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1459,6 +1452,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1477,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111487427</v>
+        <v>111487417</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1511,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>626206.7588566126</v>
+        <v>626274.1114414346</v>
       </c>
       <c r="R9" t="n">
-        <v>6893112.222867905</v>
+        <v>6893228.451636742</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1571,6 +1565,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1589,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111487424</v>
+        <v>111487423</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1629,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>626179.4687150358</v>
+        <v>626222.1012433186</v>
       </c>
       <c r="R10" t="n">
-        <v>6893140.215102527</v>
+        <v>6893215.74357231</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1701,10 +1696,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111487416</v>
+        <v>111487427</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,25 +1708,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1741,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>626241.4078639001</v>
+        <v>626206.7588566126</v>
       </c>
       <c r="R11" t="n">
-        <v>6893275.892764967</v>
+        <v>6893112.222867905</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1795,7 +1790,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1814,10 +1808,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111487419</v>
+        <v>111487420</v>
       </c>
       <c r="B12" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,25 +1820,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>626208.9904600172</v>
+        <v>626221.6215819545</v>
       </c>
       <c r="R12" t="n">
-        <v>6893240.521565447</v>
+        <v>6893253.628042356</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1926,10 +1920,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111487418</v>
+        <v>111487422</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1938,25 +1932,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1966,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>626244.4413132126</v>
+        <v>626214.6507017991</v>
       </c>
       <c r="R13" t="n">
-        <v>6893219.854707362</v>
+        <v>6893264.597594698</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2038,7 +2032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111487420</v>
+        <v>111487429</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2078,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>626221.6215819545</v>
+        <v>626289.1696174983</v>
       </c>
       <c r="R14" t="n">
-        <v>6893253.628042356</v>
+        <v>6893239.309586792</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2126,12 +2120,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter inom 2m2</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62083-2022.xlsx
+++ b/artfynd/A 62083-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487424</v>
+        <v>111487420</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626179.4687150358</v>
+        <v>626221.6215819545</v>
       </c>
       <c r="R2" t="n">
-        <v>6893140.215102527</v>
+        <v>6893253.628042356</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111487428</v>
+        <v>111487418</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626201.261590388</v>
+        <v>626244.4413132126</v>
       </c>
       <c r="R3" t="n">
-        <v>6893121.376245681</v>
+        <v>6893219.854707362</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -880,18 +880,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter spridda över 2 m2</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -910,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111487421</v>
+        <v>111487429</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -950,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>626220.5943774013</v>
+        <v>626289.1696174983</v>
       </c>
       <c r="R4" t="n">
-        <v>6893268.563298941</v>
+        <v>6893239.309586792</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -998,12 +992,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter inom 2m2</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111487418</v>
+        <v>111487423</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,21 +1038,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626244.4413132126</v>
+        <v>626222.1012433186</v>
       </c>
       <c r="R5" t="n">
-        <v>6893219.854707362</v>
+        <v>6893215.74357231</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111487419</v>
+        <v>111487415</v>
       </c>
       <c r="B6" t="n">
-        <v>5135</v>
+        <v>73634</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,21 +1150,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>105930</v>
+        <v>6426</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626208.9904600172</v>
+        <v>626321.4062460049</v>
       </c>
       <c r="R6" t="n">
-        <v>6893240.521565447</v>
+        <v>6893191.850843907</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111487415</v>
+        <v>111487428</v>
       </c>
       <c r="B7" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1258,25 +1258,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626321.4062460049</v>
+        <v>626201.261590388</v>
       </c>
       <c r="R7" t="n">
-        <v>6893191.850843907</v>
+        <v>6893121.376245681</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1334,12 +1334,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter spridda över 2 m2</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1358,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111487416</v>
+        <v>111487419</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1376,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1398,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>626241.4078639001</v>
+        <v>626208.9904600172</v>
       </c>
       <c r="R8" t="n">
-        <v>6893275.892764967</v>
+        <v>6893240.521565447</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1452,7 +1458,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1471,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111487417</v>
+        <v>111487427</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1488,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1511,10 +1516,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>626274.1114414346</v>
+        <v>626206.7588566126</v>
       </c>
       <c r="R9" t="n">
-        <v>6893228.451636742</v>
+        <v>6893112.222867905</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1565,7 +1570,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1584,10 +1588,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111487423</v>
+        <v>111487422</v>
       </c>
       <c r="B10" t="n">
-        <v>73696</v>
+        <v>89369</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1600,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1628,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>626222.1012433186</v>
+        <v>626214.6507017991</v>
       </c>
       <c r="R10" t="n">
-        <v>6893215.74357231</v>
+        <v>6893264.597594698</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1696,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111487427</v>
+        <v>111487416</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1708,25 +1712,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1740,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>626206.7588566126</v>
+        <v>626241.4078639001</v>
       </c>
       <c r="R11" t="n">
-        <v>6893112.222867905</v>
+        <v>6893275.892764967</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1790,6 +1794,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1808,10 +1813,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111487420</v>
+        <v>111487421</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1820,25 +1825,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1848,10 +1853,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>626221.6215819545</v>
+        <v>626220.5943774013</v>
       </c>
       <c r="R12" t="n">
-        <v>6893253.628042356</v>
+        <v>6893268.563298941</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1920,10 +1925,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111487422</v>
+        <v>111487424</v>
       </c>
       <c r="B13" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1932,25 +1937,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1960,10 +1965,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>626214.6507017991</v>
+        <v>626179.4687150358</v>
       </c>
       <c r="R13" t="n">
-        <v>6893264.597594698</v>
+        <v>6893140.215102527</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2032,7 +2037,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111487429</v>
+        <v>111487417</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2072,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>626289.1696174983</v>
+        <v>626274.1114414346</v>
       </c>
       <c r="R14" t="n">
-        <v>6893239.309586792</v>
+        <v>6893228.451636742</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2118,11 +2123,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter inom 2m2</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 62083-2022.xlsx
+++ b/artfynd/A 62083-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487420</v>
+        <v>111487416</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626221.6215819545</v>
+        <v>626241.4078639001</v>
       </c>
       <c r="R2" t="n">
-        <v>6893253.628042356</v>
+        <v>6893275.892764967</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -774,6 +774,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -904,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111487429</v>
+        <v>111487419</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +917,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>626289.1696174983</v>
+        <v>626208.9904600172</v>
       </c>
       <c r="R4" t="n">
-        <v>6893239.309586792</v>
+        <v>6893240.521565447</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -992,18 +993,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter inom 2m2</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111487423</v>
+        <v>111487424</v>
       </c>
       <c r="B5" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1062,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626222.1012433186</v>
+        <v>626179.4687150358</v>
       </c>
       <c r="R5" t="n">
-        <v>6893215.74357231</v>
+        <v>6893140.215102527</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1134,10 +1129,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111487415</v>
+        <v>111487417</v>
       </c>
       <c r="B6" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,25 +1141,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1174,10 +1169,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626321.4062460049</v>
+        <v>626274.1114414346</v>
       </c>
       <c r="R6" t="n">
-        <v>6893191.850843907</v>
+        <v>6893228.451636742</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1228,6 +1223,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1246,10 +1242,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111487428</v>
+        <v>111487421</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1258,25 +1254,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1282,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626201.261590388</v>
+        <v>626220.5943774013</v>
       </c>
       <c r="R7" t="n">
-        <v>6893121.376245681</v>
+        <v>6893268.563298941</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1334,18 +1330,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter spridda över 2 m2</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1364,10 +1354,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111487419</v>
+        <v>111487423</v>
       </c>
       <c r="B8" t="n">
-        <v>5135</v>
+        <v>73696</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,25 +1366,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>105930</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1394,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>626208.9904600172</v>
+        <v>626222.1012433186</v>
       </c>
       <c r="R8" t="n">
-        <v>6893240.521565447</v>
+        <v>6893215.74357231</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1476,10 +1466,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111487427</v>
+        <v>111487415</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>73634</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1478,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6426</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1516,10 +1506,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>626206.7588566126</v>
+        <v>626321.4062460049</v>
       </c>
       <c r="R9" t="n">
-        <v>6893112.222867905</v>
+        <v>6893191.850843907</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1588,10 +1578,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111487422</v>
+        <v>111487428</v>
       </c>
       <c r="B10" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,25 +1590,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1628,10 +1618,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>626214.6507017991</v>
+        <v>626201.261590388</v>
       </c>
       <c r="R10" t="n">
-        <v>6893264.597594698</v>
+        <v>6893121.376245681</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1676,12 +1666,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter spridda över 2 m2</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1700,7 +1696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111487416</v>
+        <v>111487420</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1740,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>626241.4078639001</v>
+        <v>626221.6215819545</v>
       </c>
       <c r="R11" t="n">
-        <v>6893275.892764967</v>
+        <v>6893253.628042356</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1794,7 +1790,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1813,10 +1808,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111487421</v>
+        <v>111487427</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,21 +1824,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1853,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>626220.5943774013</v>
+        <v>626206.7588566126</v>
       </c>
       <c r="R12" t="n">
-        <v>6893268.563298941</v>
+        <v>6893112.222867905</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1925,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111487424</v>
+        <v>111487429</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1965,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>626179.4687150358</v>
+        <v>626289.1696174983</v>
       </c>
       <c r="R13" t="n">
-        <v>6893140.215102527</v>
+        <v>6893239.309586792</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2013,12 +2008,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter inom 2m2</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2037,10 +2038,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111487417</v>
+        <v>111487422</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2049,25 +2050,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2078,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>626274.1114414346</v>
+        <v>626214.6507017991</v>
       </c>
       <c r="R14" t="n">
-        <v>6893228.451636742</v>
+        <v>6893264.597594698</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2131,7 +2132,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62083-2022.xlsx
+++ b/artfynd/A 62083-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487416</v>
+        <v>111487429</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626241.4078639001</v>
+        <v>626289.1696174983</v>
       </c>
       <c r="R2" t="n">
-        <v>6893275.892764967</v>
+        <v>6893239.309586792</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -766,6 +766,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ca 50 bladrosetter inom 2m2</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -1017,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111487424</v>
+        <v>111487423</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1034,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1057,10 +1062,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>626179.4687150358</v>
+        <v>626222.1012433186</v>
       </c>
       <c r="R5" t="n">
-        <v>6893140.215102527</v>
+        <v>6893215.74357231</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1129,10 +1134,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111487417</v>
+        <v>111487427</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1141,25 +1146,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1169,10 +1174,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>626274.1114414346</v>
+        <v>626206.7588566126</v>
       </c>
       <c r="R6" t="n">
-        <v>6893228.451636742</v>
+        <v>6893112.222867905</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1223,7 +1228,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1242,10 +1246,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111487421</v>
+        <v>111487422</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1254,25 +1258,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1282,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>626220.5943774013</v>
+        <v>626214.6507017991</v>
       </c>
       <c r="R7" t="n">
-        <v>6893268.563298941</v>
+        <v>6893264.597594698</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1354,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111487423</v>
+        <v>111487424</v>
       </c>
       <c r="B8" t="n">
-        <v>73696</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1366,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1394,10 +1398,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>626222.1012433186</v>
+        <v>626179.4687150358</v>
       </c>
       <c r="R8" t="n">
-        <v>6893215.74357231</v>
+        <v>6893140.215102527</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1466,10 +1470,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111487415</v>
+        <v>111487416</v>
       </c>
       <c r="B9" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1478,25 +1482,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1506,10 +1510,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>626321.4062460049</v>
+        <v>626241.4078639001</v>
       </c>
       <c r="R9" t="n">
-        <v>6893191.850843907</v>
+        <v>6893275.892764967</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1560,6 +1564,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1578,7 +1583,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111487428</v>
+        <v>111487417</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1618,10 +1623,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>626201.261590388</v>
+        <v>626274.1114414346</v>
       </c>
       <c r="R10" t="n">
-        <v>6893121.376245681</v>
+        <v>6893228.451636742</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1664,11 +1669,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ca 50 bladrosetter spridda över 2 m2</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1696,10 +1696,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111487420</v>
+        <v>111487421</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>626221.6215819545</v>
+        <v>626220.5943774013</v>
       </c>
       <c r="R11" t="n">
-        <v>6893253.628042356</v>
+        <v>6893268.563298941</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111487427</v>
+        <v>111487420</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1820,25 +1820,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>626206.7588566126</v>
+        <v>626221.6215819545</v>
       </c>
       <c r="R12" t="n">
-        <v>6893112.222867905</v>
+        <v>6893253.628042356</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111487429</v>
+        <v>111487428</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>626289.1696174983</v>
+        <v>626201.261590388</v>
       </c>
       <c r="R13" t="n">
-        <v>6893239.309586792</v>
+        <v>6893121.376245681</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ca 50 bladrosetter inom 2m2</t>
+          <t>ca 50 bladrosetter spridda över 2 m2</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2038,10 +2038,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111487422</v>
+        <v>111487415</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>73634</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2054,21 +2054,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>6426</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>626214.6507017991</v>
+        <v>626321.4062460049</v>
       </c>
       <c r="R14" t="n">
-        <v>6893264.597594698</v>
+        <v>6893191.850843907</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
